--- a/data/trans_dic/P25_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece colesterol alto</t>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,46; 37,16</t>
+          <t>17,84; 34,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 19,52</t>
+          <t>12,45; 23,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,22</t>
+          <t>18,34; 28,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,12; 35,29</t>
+          <t>18,88; 40,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 32,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 26,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 31,26</t>
+          <t>15,1; 29,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 35,1</t>
+          <t>18,27; 28,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,13; 31,75</t>
+          <t>23,19; 32,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 22,47</t>
+          <t>21,33; 37,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,61; 28,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 33,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 28,95</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,51; 25,26</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 29,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>23,78; 36,16</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 15,23</t>
+          <t>11,05; 18,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,0</t>
+          <t>10,76; 17,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 14,46</t>
+          <t>9,02; 14,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 18,2</t>
+          <t>12,84; 20,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,67</t>
+          <t>9,04; 15,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,78</t>
+          <t>10,51; 16,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 13,84</t>
+          <t>10,94; 15,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 13,84</t>
+          <t>13,1; 20,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 15,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 15,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 14,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 19,84</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 14,15</t>
+          <t>7,28; 15,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 16,83</t>
+          <t>10,95; 18,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,73</t>
+          <t>10,33; 16,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 16,31</t>
+          <t>15,69; 25,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,01</t>
+          <t>6,22; 12,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,94</t>
+          <t>7,44; 13,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,78</t>
+          <t>5,75; 10,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,09</t>
+          <t>9,67; 17,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 12,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 14,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 12,48</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 19,56</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 17,24</t>
+          <t>9,07; 15,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 14,86</t>
+          <t>5,36; 11,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,6</t>
+          <t>10,89; 18,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 16,77</t>
+          <t>13,05; 19,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,75</t>
+          <t>11,53; 19,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 15,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 15,1</t>
+          <t>16,05; 25,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 20,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 16,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 14,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 20,62</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 15,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 15,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 16,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 21,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 16,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 16,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,43; 16,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 21,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 15,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 15,22</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 16,12</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 20,74</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>87369</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>93763</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>168848</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137514</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91548</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>146652</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>247742</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>184070</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>178917</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>240416</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>416590</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>321584</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60027; 117234</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64766; 121976</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>133202; 209166</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>84120; 178446</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63339; 122327</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>115714; 180135</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>206977; 292274</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134584; 235579</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>137853; 218841</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>201967; 291354</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>358113; 471126</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>256026; 389248</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134020</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>163262</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>183300</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>180235</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>120428</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>162336</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196648</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>180102</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>254448</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>325598</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>379948</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>360337</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102805; 175180</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128639; 207770</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>145786; 238821</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>136756; 222646</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90434; 157738</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>128885; 198724</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>164403; 235906</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>141601; 226251</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>208540; 306644</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>277550; 379782</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>329828; 456331</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>303624; 425932</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75920</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>124209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>144025</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>162610</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68861</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>92975</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>89679</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>119556</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>144781</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>217184</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>233704</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>282167</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52097; 107712</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92596; 155828</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>112684; 181000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>129176; 206949</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47565; 97907</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>69813; 123076</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66660; 120245</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86747; 161205</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>108199; 182059</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>177674; 259686</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>192431; 280959</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>234783; 336637</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>167188</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>157628</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>229067</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>116126</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>201109</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>396255</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>186347</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>358737</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>131649; 221846</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46136; 98406</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>119660; 202495</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>181049; 276743</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>87588; 151636</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>158041; 251972</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>335529; 464642</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>148613; 228476</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>296192; 429662</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>464496</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>451456</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>496173</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>637987</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>509905</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>518089</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>534069</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>684838</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>974401</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>969545</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1030242</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1322825</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>403757; 548557</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>393496; 524405</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>432014; 568822</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>561299; 729978</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>444975; 579865</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>452542; 585419</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>477490; 596694</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>602028; 769334</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>875853; 1081958</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>885971; 1062431</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>939654; 1126728</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1211444; 1457595</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
